--- a/Files/test_data/自动化异常测试用例.xlsx
+++ b/Files/test_data/自动化异常测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\pytest-api-auto\utils\other_tools\allure_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\pytest-api-auto\Files\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD6DF0-32F6-43F3-9F1B-79713BCF89E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB8B22-1C61-448C-BBFE-4D97FE96A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="840" windowWidth="27420" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1980" windowWidth="21960" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,8 +93,185 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>24235weq</t>
+    <t>183f98d463b162b1</t>
+  </si>
+  <si>
+    <t>正常登录</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '36', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>{'username': '18800000001', 'password': '123456'}</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>418ms</t>
+  </si>
+  <si>
+    <t>{"data":null,"errorCode":-1,"errorMsg":"账号密码不匹配！"}</t>
+  </si>
+  <si>
+    <t>3d1ad72491bd4776</t>
+  </si>
+  <si>
+    <t>正常获取个人身份信息</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/user/lg/userinfo/json</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.userInfo.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>11ms</t>
+  </si>
+  <si>
+    <t>json.decoder.JSONDecodeError: Expecting value: line 1 column 1 (char 0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52636fa8dc737619</t>
+  </si>
+  <si>
+    <t>注册验证</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/register</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '54', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>{'username': '18100005201', 'password': '123456', 'repassword': '123456'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18100005201', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>297ms</t>
+  </si>
+  <si>
+    <t>{"data":null,"errorCode":-1,"errorMsg":"用户名已经被注册！"}</t>
+  </si>
+  <si>
+    <t>63a4a3cc35bed38</t>
+  </si>
+  <si>
+    <t>正常删除不存在的ID数据（接口未完成此功能，跳过该条用例）</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
+  </si>
+  <si>
+    <t>{'id': 111}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': None, 'replace_key': '$.data.id'}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>211ms</t>
+  </si>
+  <si>
+    <t>utils.other_tools.exceptions.ValueNotFoundError: 缓存设置失败，程序中未检测到需要缓存的数据。请求参数: {"errorCode":-1001,"errorMsg":"请先登录！"}提取的 jsonpath 内容: $.data.id</t>
+  </si>
+  <si>
+    <t>83d0f3e7fc2cf362</t>
+  </si>
+  <si>
+    <t>查看收藏网址列表接口</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data;', 'cookie': 'JSESSIONID=AAD41630C31C40284C2763808F1261C1;'}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
+  </si>
+  <si>
+    <t>2187ms</t>
+  </si>
+  <si>
+    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
+  </si>
+  <si>
+    <t>c07fb1ee6d2a4603</t>
+  </si>
+  <si>
+    <t>正常删除收藏网站</t>
+  </si>
+  <si>
+    <t>{'id': '$cache{collect_delete_tool_01_id}', 'id2': 2}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': 'collect_delete_tool_01_id', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>213ms</t>
+  </si>
+  <si>
+    <t>f9b38a1e69ac7c97</t>
+  </si>
+  <si>
+    <t>编辑收藏网址</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
+  </si>
+  <si>
+    <t>{'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'id': None}</t>
+  </si>
+  <si>
+    <t>212ms</t>
+  </si>
+  <si>
+    <t>fc4aeafa221949e6</t>
+  </si>
+  <si>
+    <t>新增收藏网址接口</t>
+  </si>
+  <si>
+    <t>{'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None, 'message': 'errorCode 断言为 0'}}</t>
+  </si>
+  <si>
+    <t>161ms</t>
   </si>
 </sst>
 </file>
@@ -487,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K1"/>
@@ -546,80 +723,308 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>111</v>
-      </c>
-      <c r="B2" s="5">
-        <v>222</v>
-      </c>
-      <c r="C2" s="5">
-        <v>4444</v>
-      </c>
-      <c r="D2" s="5">
+    <row r="2" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="5">
+    </row>
+    <row r="7" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="5">
-        <v>116</v>
-      </c>
-      <c r="G2" s="5">
-        <v>213</v>
-      </c>
-      <c r="H2" s="5">
-        <v>12312</v>
-      </c>
-      <c r="I2" s="5">
-        <v>12312</v>
-      </c>
-      <c r="J2" s="5">
-        <v>41241</v>
-      </c>
-      <c r="K2" s="5">
-        <v>312</v>
-      </c>
-      <c r="L2" s="5">
-        <v>643242352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>3123</v>
-      </c>
-      <c r="B3" s="5">
-        <v>52341</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3333</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2312</v>
-      </c>
-      <c r="E3" s="5">
-        <v>123</v>
-      </c>
-      <c r="F3" s="5">
-        <v>123123</v>
-      </c>
-      <c r="G3" s="5">
-        <v>123123</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1512</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2123123</v>
-      </c>
-      <c r="J3" s="5">
-        <v>312123</v>
-      </c>
-      <c r="K3" s="5">
-        <v>12312</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Files/test_data/自动化异常测试用例.xlsx
+++ b/Files/test_data/自动化异常测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\pytest-api-auto\Files\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pytest-api-auto\Files\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BB8B22-1C61-448C-BBFE-4D97FE96A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF41352-1F3A-4128-9636-5BF161085E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1980" windowWidth="21960" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="2400" windowWidth="21615" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,75 +25,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>allureUid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用例名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>请求</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="9"/>
+        <color theme="0"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>URL</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>依赖数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>预期数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sql</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>响应耗时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>响应结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>183f98d463b162b1</t>
+  </si>
+  <si>
+    <t>223b6c13ed21d3bb</t>
   </si>
   <si>
     <t>正常登录</t>
@@ -120,165 +101,173 @@
     <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
   </si>
   <si>
-    <t>418ms</t>
+    <t>273ms</t>
   </si>
   <si>
     <t>{"data":null,"errorCode":-1,"errorMsg":"账号密码不匹配！"}</t>
   </si>
   <si>
-    <t>3d1ad72491bd4776</t>
+    <t>2468b390deda1620</t>
+  </si>
+  <si>
+    <t>注册验证</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/register</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '54', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>{'username': '18100005201', 'password': '123456', 'repassword': '123456'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18100005201', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>259ms</t>
+  </si>
+  <si>
+    <t>{"data":null,"errorCode":-1,"errorMsg":"用户名已经被注册！"}</t>
+  </si>
+  <si>
+    <t>4e655750422c3209</t>
+  </si>
+  <si>
+    <t>编辑收藏网址</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'id': None}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': None, 'replace_key': '$.data.id'}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>169ms</t>
+  </si>
+  <si>
+    <t>utils.other_tools.exceptions.ValueNotFoundError: 缓存设置失败，程序中未检测到需要缓存的数据。请求参数: {"errorCode":-1001,"errorMsg":"请先登录！"}提取的 jsonpath 内容: $.data.id</t>
+  </si>
+  <si>
+    <t>7fc2cb69cee10aaf</t>
+  </si>
+  <si>
+    <t>正常删除收藏网站</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
+  </si>
+  <si>
+    <t>{'id': '$cache{collect_delete_tool_01_id}', 'id2': 2}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': 'collect_delete_tool_01_id', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>161ms</t>
+  </si>
+  <si>
+    <t>8e2363e3f427ecc5</t>
+  </si>
+  <si>
+    <t>新增收藏网址接口</t>
+  </si>
+  <si>
+    <t>{'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None, 'message': 'errorCode 断言为 0'}}</t>
+  </si>
+  <si>
+    <t>164ms</t>
+  </si>
+  <si>
+    <t>94c92c78e172f299</t>
+  </si>
+  <si>
+    <t>正常删除不存在的ID数据（接口未完成此功能，跳过该条用例）</t>
+  </si>
+  <si>
+    <t>{'id': 111}</t>
+  </si>
+  <si>
+    <t>186ms</t>
+  </si>
+  <si>
+    <t>d303fc595ccd936d</t>
+  </si>
+  <si>
+    <t>查看收藏网址列表接口</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data;', 'cookie': 'JSESSIONID=0A09251022239FEA12F9C125E6CC8CFB;'}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
+  </si>
+  <si>
+    <t>2170ms</t>
+  </si>
+  <si>
+    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
+  </si>
+  <si>
+    <t>e71428731ade9faa</t>
   </si>
   <si>
     <t>正常获取个人身份信息</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8000/user/lg/userinfo/json</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
+    <t>URL not found</t>
+  </si>
+  <si>
+    <t>Method not found</t>
+  </si>
+  <si>
+    <t>Headers not found</t>
+  </si>
+  <si>
+    <t>Data not found</t>
   </si>
   <si>
     <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.userInfo.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
   </si>
   <si>
-    <t>11ms</t>
-  </si>
-  <si>
-    <t>json.decoder.JSONDecodeError: Expecting value: line 1 column 1 (char 0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>52636fa8dc737619</t>
-  </si>
-  <si>
-    <t>注册验证</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/user/register</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '54', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
-  </si>
-  <si>
-    <t>{'username': '18100005201', 'password': '123456', 'repassword': '123456'}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18100005201', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>297ms</t>
-  </si>
-  <si>
-    <t>{"data":null,"errorCode":-1,"errorMsg":"用户名已经被注册！"}</t>
-  </si>
-  <si>
-    <t>63a4a3cc35bed38</t>
-  </si>
-  <si>
-    <t>正常删除不存在的ID数据（接口未完成此功能，跳过该条用例）</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
-  </si>
-  <si>
-    <t>{'id': 111}</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': None, 'replace_key': '$.data.id'}]}]</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>211ms</t>
-  </si>
-  <si>
-    <t>utils.other_tools.exceptions.ValueNotFoundError: 缓存设置失败，程序中未检测到需要缓存的数据。请求参数: {"errorCode":-1001,"errorMsg":"请先登录！"}提取的 jsonpath 内容: $.data.id</t>
-  </si>
-  <si>
-    <t>83d0f3e7fc2cf362</t>
-  </si>
-  <si>
-    <t>查看收藏网址列表接口</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data;', 'cookie': 'JSESSIONID=AAD41630C31C40284C2763808F1261C1;'}</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
-  </si>
-  <si>
-    <t>2187ms</t>
-  </si>
-  <si>
-    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
-  </si>
-  <si>
-    <t>c07fb1ee6d2a4603</t>
-  </si>
-  <si>
-    <t>正常删除收藏网站</t>
-  </si>
-  <si>
-    <t>{'id': '$cache{collect_delete_tool_01_id}', 'id2': 2}</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': 'collect_delete_tool_01_id', 'replace_key': None}]}]</t>
-  </si>
-  <si>
-    <t>213ms</t>
-  </si>
-  <si>
-    <t>f9b38a1e69ac7c97</t>
-  </si>
-  <si>
-    <t>编辑收藏网址</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
-  </si>
-  <si>
-    <t>{'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'id': None}</t>
-  </si>
-  <si>
-    <t>212ms</t>
-  </si>
-  <si>
-    <t>fc4aeafa221949e6</t>
-  </si>
-  <si>
-    <t>新增收藏网址接口</t>
-  </si>
-  <si>
-    <t>{'cookie': '$cache{login_cookie}'}</t>
-  </si>
-  <si>
-    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None, 'message': 'errorCode 断言为 0'}}</t>
-  </si>
-  <si>
-    <t>161ms</t>
+    <t>2003ms</t>
+  </si>
+  <si>
+    <t>Response not found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,12 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -316,12 +299,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -367,18 +344,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -666,23 +640,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.875" style="5"/>
-    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="4"/>
+    <col min="6" max="6" width="24.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -692,7 +666,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -724,307 +698,307 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="L4" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>46</v>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>55</v>
+    <row r="8" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
+    <row r="9" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>46</v>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Files/test_data/自动化异常测试用例.xlsx
+++ b/Files/test_data/自动化异常测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pytest-api-auto\Files\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF41352-1F3A-4128-9636-5BF161085E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB4C6D9-CE49-4F0B-AC78-D0EC16EC859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="2400" windowWidth="21615" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,160 @@
     <t>响应结果</t>
   </si>
   <si>
-    <t>223b6c13ed21d3bb</t>
+    <t>10491f338e1cdb4e</t>
+  </si>
+  <si>
+    <t>编辑收藏网址</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'id': None}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': None, 'replace_key': '$.data.id'}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>178ms</t>
+  </si>
+  <si>
+    <t>utils.other_tools.exceptions.ValueNotFoundError: 缓存设置失败，程序中未检测到需要缓存的数据。请求参数: {"errorCode":-1001,"errorMsg":"请先登录！"}提取的 jsonpath 内容: $.data.id</t>
+  </si>
+  <si>
+    <t>2c971701bc549264</t>
+  </si>
+  <si>
+    <t>查看收藏网址列表接口</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data;', 'cookie': 'JSESSIONID=37727D66D4D115D8661DA860C4F2BF79;'}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
+  </si>
+  <si>
+    <t>2150ms</t>
+  </si>
+  <si>
+    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
+  </si>
+  <si>
+    <t>80d321906e1833b0</t>
+  </si>
+  <si>
+    <t>正常删除收藏网站</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
+  </si>
+  <si>
+    <t>{'id': '$cache{collect_delete_tool_01_id}', 'id2': 2}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': 'collect_delete_tool_01_id', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>193ms</t>
+  </si>
+  <si>
+    <t>caa537da4c5fd706</t>
+  </si>
+  <si>
+    <t>正常获取个人身份信息</t>
+  </si>
+  <si>
+    <t>URL not found</t>
+  </si>
+  <si>
+    <t>Method not found</t>
+  </si>
+  <si>
+    <t>Headers not found</t>
+  </si>
+  <si>
+    <t>Data not found</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.userInfo.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>2004ms</t>
+  </si>
+  <si>
+    <t>Response not found</t>
+  </si>
+  <si>
+    <t>eb102065bd2b8204</t>
+  </si>
+  <si>
+    <t>新增收藏网址接口</t>
+  </si>
+  <si>
+    <t>{'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None, 'message': 'errorCode 断言为 0'}}</t>
+  </si>
+  <si>
+    <t>164ms</t>
+  </si>
+  <si>
+    <t>f2d6b93b98bb3461</t>
+  </si>
+  <si>
+    <t>注册验证</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/register</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '54', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>{'username': '18100005201', 'password': '123456', 'repassword': '123456'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18100005201', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>249ms</t>
+  </si>
+  <si>
+    <t>{"data":null,"errorCode":-1,"errorMsg":"用户名已经被注册！"}</t>
+  </si>
+  <si>
+    <t>faf5f061a4fcd5db</t>
   </si>
   <si>
     <t>正常登录</t>
@@ -83,118 +236,22 @@
     <t>https://www.wanandroid.com/user/login</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
     <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '36', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
   </si>
   <si>
     <t>{'username': '18800000001', 'password': '123456'}</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
   </si>
   <si>
-    <t>273ms</t>
+    <t>254ms</t>
   </si>
   <si>
     <t>{"data":null,"errorCode":-1,"errorMsg":"账号密码不匹配！"}</t>
   </si>
   <si>
-    <t>2468b390deda1620</t>
-  </si>
-  <si>
-    <t>注册验证</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/user/register</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '54', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
-  </si>
-  <si>
-    <t>{'username': '18100005201', 'password': '123456', 'repassword': '123456'}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18100005201', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>259ms</t>
-  </si>
-  <si>
-    <t>{"data":null,"errorCode":-1,"errorMsg":"用户名已经被注册！"}</t>
-  </si>
-  <si>
-    <t>4e655750422c3209</t>
-  </si>
-  <si>
-    <t>编辑收藏网址</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
-  </si>
-  <si>
-    <t>{'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'id': None}</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': None, 'replace_key': '$.data.id'}]}]</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>169ms</t>
-  </si>
-  <si>
-    <t>utils.other_tools.exceptions.ValueNotFoundError: 缓存设置失败，程序中未检测到需要缓存的数据。请求参数: {"errorCode":-1001,"errorMsg":"请先登录！"}提取的 jsonpath 内容: $.data.id</t>
-  </si>
-  <si>
-    <t>7fc2cb69cee10aaf</t>
-  </si>
-  <si>
-    <t>正常删除收藏网站</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
-  </si>
-  <si>
-    <t>{'id': '$cache{collect_delete_tool_01_id}', 'id2': 2}</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': 'collect_delete_tool_01_id', 'replace_key': None}]}]</t>
-  </si>
-  <si>
-    <t>161ms</t>
-  </si>
-  <si>
-    <t>8e2363e3f427ecc5</t>
-  </si>
-  <si>
-    <t>新增收藏网址接口</t>
-  </si>
-  <si>
-    <t>{'cookie': '$cache{login_cookie}'}</t>
-  </si>
-  <si>
-    <t>{'name': '自动化', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None, 'message': 'errorCode 断言为 0'}}</t>
-  </si>
-  <si>
-    <t>164ms</t>
-  </si>
-  <si>
-    <t>94c92c78e172f299</t>
+    <t>ff29d7b032ae9be0</t>
   </si>
   <si>
     <t>正常删除不存在的ID数据（接口未完成此功能，跳过该条用例）</t>
@@ -203,64 +260,7 @@
     <t>{'id': 111}</t>
   </si>
   <si>
-    <t>186ms</t>
-  </si>
-  <si>
-    <t>d303fc595ccd936d</t>
-  </si>
-  <si>
-    <t>查看收藏网址列表接口</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data;', 'cookie': 'JSESSIONID=0A09251022239FEA12F9C125E6CC8CFB;'}</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
-  </si>
-  <si>
-    <t>2170ms</t>
-  </si>
-  <si>
-    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
-  </si>
-  <si>
-    <t>e71428731ade9faa</t>
-  </si>
-  <si>
-    <t>正常获取个人身份信息</t>
-  </si>
-  <si>
-    <t>URL not found</t>
-  </si>
-  <si>
-    <t>Method not found</t>
-  </si>
-  <si>
-    <t>Headers not found</t>
-  </si>
-  <si>
-    <t>Data not found</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.userInfo.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>2003ms</t>
-  </si>
-  <si>
-    <t>Response not found</t>
+    <t>181ms</t>
   </si>
 </sst>
 </file>
@@ -726,62 +726,62 @@
         <v>20</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -790,25 +790,25 @@
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
@@ -822,42 +822,42 @@
         <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -866,36 +866,36 @@
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -904,101 +904,101 @@
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Files/test_data/自动化异常测试用例.xlsx
+++ b/Files/test_data/自动化异常测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pytest-api-auto\Files\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB4C6D9-CE49-4F0B-AC78-D0EC16EC859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A869A250-1B63-4FE1-9EE7-1ED8E85D7DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="2400" windowWidth="21615" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
   <si>
     <t>allureUid</t>
   </si>
@@ -74,7 +74,148 @@
     <t>响应结果</t>
   </si>
   <si>
-    <t>10491f338e1cdb4e</t>
+    <t>157172318d35c718</t>
+  </si>
+  <si>
+    <t>正常删除不存在的ID数据（接口未完成此功能，跳过该条用例）</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
+  </si>
+  <si>
+    <t>{'id': 111}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': None, 'replace_key': '$.data.id'}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>186ms</t>
+  </si>
+  <si>
+    <t>utils.other_tools.exceptions.ValueNotFoundError: 缓存设置失败，程序中未检测到需要缓存的数据。请求参数: {"errorCode":-1001,"errorMsg":"请先登录！"}提取的 jsonpath 内容: $.data.id</t>
+  </si>
+  <si>
+    <t>460b3839b8fc8b60</t>
+  </si>
+  <si>
+    <t>注册验证</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/register</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '54', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>{'username': '18100005201', 'password': '123456', 'repassword': '123456'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18100005201', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>258ms</t>
+  </si>
+  <si>
+    <t>{"data":null,"errorCode":-1,"errorMsg":"用户名已经被注册！"}</t>
+  </si>
+  <si>
+    <t>53bc1e0e5d457ac</t>
+  </si>
+  <si>
+    <t>正常登录</t>
+  </si>
+  <si>
+    <t>URL not found</t>
+  </si>
+  <si>
+    <t>Method not found</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Headers not found</t>
+  </si>
+  <si>
+    <t>Data not found</t>
+  </si>
+  <si>
+    <t>{'msg': {'jsonpath': '$.msg', 'type': '==', 'value': '登录成功', 'AssertType': None}, 'status_code': 200}</t>
+  </si>
+  <si>
+    <t>2003ms</t>
+  </si>
+  <si>
+    <t>Response not found</t>
+  </si>
+  <si>
+    <t>60150f24010f129c</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/user/login</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '36', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
+  </si>
+  <si>
+    <t>{'username': '18800000001', 'password': '123456'}</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>259ms</t>
+  </si>
+  <si>
+    <t>{"data":null,"errorCode":-1,"errorMsg":"账号密码不匹配！"}</t>
+  </si>
+  <si>
+    <t>60219204aad3fcd9</t>
+  </si>
+  <si>
+    <t>查看收藏网址列表接口</t>
+  </si>
+  <si>
+    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data;', 'cookie': 'JSESSIONID=F45EB00090DC0F95DB43E2D06FB4F344;'}</t>
+  </si>
+  <si>
+    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
+  </si>
+  <si>
+    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
+  </si>
+  <si>
+    <t>2164ms</t>
+  </si>
+  <si>
+    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
+  </si>
+  <si>
+    <t>67815cac0af38600</t>
   </si>
   <si>
     <t>编辑收藏网址</t>
@@ -83,109 +224,52 @@
     <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'multipart/form-data;', 'cookie': '$cache{login_cookie}'}</t>
-  </si>
-  <si>
     <t>{'name': '自动化编辑网址名称', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2', 'id': None}</t>
   </si>
   <si>
-    <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': None, 'replace_key': '$.data.id'}]}]</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>178ms</t>
-  </si>
-  <si>
-    <t>utils.other_tools.exceptions.ValueNotFoundError: 缓存设置失败，程序中未检测到需要缓存的数据。请求参数: {"errorCode":-1001,"errorMsg":"请先登录！"}提取的 jsonpath 内容: $.data.id</t>
-  </si>
-  <si>
-    <t>2c971701bc549264</t>
-  </si>
-  <si>
-    <t>查看收藏网址列表接口</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/usertools/json</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data;', 'cookie': 'JSESSIONID=37727D66D4D115D8661DA860C4F2BF79;'}</t>
-  </si>
-  <si>
-    <t>[{'case_id': 'self', 'dependent_data': [{'dependent_type': 'sqlData', 'jsonpath': '$.business_type', 'set_cache': 'yushaoqi', 'replace_key': None}]}]</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'status_code': 200}</t>
-  </si>
-  <si>
-    <t>2150ms</t>
-  </si>
-  <si>
-    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
-  </si>
-  <si>
-    <t>80d321906e1833b0</t>
+    <t>173ms</t>
+  </si>
+  <si>
+    <t>7162e4d5890481bb</t>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>{'username': {'jsonpath': '$.items[0].username', 'type': '==', 'value': 'admin', 'AssertType': None}}</t>
+  </si>
+  <si>
+    <t>2005ms</t>
+  </si>
+  <si>
+    <t>a2e10119244289a</t>
   </si>
   <si>
     <t>正常删除收藏网站</t>
   </si>
   <si>
-    <t>https://www.wanandroid.com/lg/collect/deletetool/json</t>
-  </si>
-  <si>
     <t>{'id': '$cache{collect_delete_tool_01_id}', 'id2': 2}</t>
   </si>
   <si>
     <t>[{'case_id': 'collect_addtool_01', 'dependent_data': [{'dependent_type': 'response', 'jsonpath': '$.data.id', 'set_cache': 'collect_delete_tool_01_id', 'replace_key': None}]}]</t>
   </si>
   <si>
-    <t>193ms</t>
-  </si>
-  <si>
-    <t>caa537da4c5fd706</t>
+    <t>181ms</t>
+  </si>
+  <si>
+    <t>dd9152075721385a</t>
   </si>
   <si>
     <t>正常获取个人身份信息</t>
   </si>
   <si>
-    <t>URL not found</t>
-  </si>
-  <si>
-    <t>Method not found</t>
-  </si>
-  <si>
-    <t>Headers not found</t>
-  </si>
-  <si>
-    <t>Data not found</t>
-  </si>
-  <si>
     <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.userInfo.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
   </si>
   <si>
-    <t>2004ms</t>
-  </si>
-  <si>
-    <t>Response not found</t>
-  </si>
-  <si>
-    <t>eb102065bd2b8204</t>
+    <t>f1858f4da026a4f1</t>
   </si>
   <si>
     <t>新增收藏网址接口</t>
@@ -200,67 +284,7 @@
     <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None, 'message': 'errorCode 断言为 0'}}</t>
   </si>
   <si>
-    <t>164ms</t>
-  </si>
-  <si>
-    <t>f2d6b93b98bb3461</t>
-  </si>
-  <si>
-    <t>注册验证</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/user/register</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '54', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
-  </si>
-  <si>
-    <t>{'username': '18100005201', 'password': '123456', 'repassword': '123456'}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18100005201', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>249ms</t>
-  </si>
-  <si>
-    <t>{"data":null,"errorCode":-1,"errorMsg":"用户名已经被注册！"}</t>
-  </si>
-  <si>
-    <t>faf5f061a4fcd5db</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/user/login</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Length': '36', 'Content-Type': 'application/x-www-form-urlencoded'}</t>
-  </si>
-  <si>
-    <t>{'username': '18800000001', 'password': '123456'}</t>
-  </si>
-  <si>
-    <t>{'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': 0, 'AssertType': None}, 'username': {'jsonpath': '$.data.username', 'type': '==', 'value': '18800000001', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>254ms</t>
-  </si>
-  <si>
-    <t>{"data":null,"errorCode":-1,"errorMsg":"账号密码不匹配！"}</t>
-  </si>
-  <si>
-    <t>ff29d7b032ae9be0</t>
-  </si>
-  <si>
-    <t>正常删除不存在的ID数据（接口未完成此功能，跳过该条用例）</t>
-  </si>
-  <si>
-    <t>{'id': 111}</t>
-  </si>
-  <si>
-    <t>181ms</t>
+    <t>150ms</t>
   </si>
 </sst>
 </file>
@@ -638,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -735,7 +759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -746,83 +770,83 @@
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="5" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -849,7 +873,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
@@ -857,45 +881,45 @@
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -904,74 +928,74 @@
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="114" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -983,10 +1007,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>20</v>
@@ -995,9 +1019,85 @@
         <v>21</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
